--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf6-Bmpr1a.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H2">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>0.9670854462136664</v>
+        <v>0.7271694557953332</v>
       </c>
       <c r="R2">
-        <v>8.703769015922999</v>
+        <v>6.544525102158</v>
       </c>
       <c r="S2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="T2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H3">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>2.847332912995221</v>
+        <v>14.71610839429122</v>
       </c>
       <c r="R3">
-        <v>25.625996216957</v>
+        <v>132.444975548621</v>
       </c>
       <c r="S3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="T3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09749966666666665</v>
+        <v>0.5039156666666667</v>
       </c>
       <c r="H4">
-        <v>0.292499</v>
+        <v>1.511747</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>2.201136582221</v>
+        <v>9.660367191146999</v>
       </c>
       <c r="R4">
-        <v>19.810229239989</v>
+        <v>86.943304720323</v>
       </c>
       <c r="S4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="T4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
     </row>
   </sheetData>
